--- a/data/finland_data/regions/South Karelia.xlsx
+++ b/data/finland_data/regions/South Karelia.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B7393C-D7DA-452B-9EAB-33073B26C8C5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14DF8E3-3A61-4079-9171-B0C75C8F6A08}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,285 +31,825 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="274">
   <si>
     <t>SYKE - GHG emissions of Finnish municipalities</t>
   </si>
   <si>
-    <t>South KareliaHinku calculation without emission credits</t>
-  </si>
-  <si>
-    <t>Total emissions2005(kt CO2e)</t>
-  </si>
-  <si>
-    <t>Total emissions2022(kt CO2e)</t>
-  </si>
-  <si>
-    <t>Change of emissions(%)</t>
-  </si>
-  <si>
-    <t>Emissions per person2005(t CO2e)</t>
-  </si>
-  <si>
-    <t>Emissions per person2022(t CO2e)</t>
-  </si>
-  <si>
-    <t>Change of emissionsper person(%)</t>
+    <t>SOUTH KARELIAHinku calculation without emission credits</t>
   </si>
   <si>
     <t>Electricity</t>
   </si>
   <si>
+    <t>94,8</t>
+  </si>
+  <si>
     <t>116,4</t>
   </si>
   <si>
+    <t>201,2</t>
+  </si>
+  <si>
+    <t>180,1</t>
+  </si>
+  <si>
+    <t>143,7</t>
+  </si>
+  <si>
+    <t>148,4</t>
+  </si>
+  <si>
+    <t>197,7</t>
+  </si>
+  <si>
+    <t>146,6</t>
+  </si>
+  <si>
+    <t>107,4</t>
+  </si>
+  <si>
+    <t>128,3</t>
+  </si>
+  <si>
+    <t>107,7</t>
+  </si>
+  <si>
+    <t>82,4</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>80,0</t>
+  </si>
+  <si>
+    <t>90,3</t>
+  </si>
+  <si>
+    <t>71,7</t>
+  </si>
+  <si>
+    <t>54,6</t>
+  </si>
+  <si>
+    <t>61,4</t>
+  </si>
+  <si>
     <t>56,2</t>
   </si>
   <si>
-    <t>-51,7</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>-48,1</t>
-  </si>
-  <si>
     <t>Electric heating</t>
   </si>
   <si>
+    <t>44,3</t>
+  </si>
+  <si>
     <t>46,9</t>
   </si>
   <si>
+    <t>66,6</t>
+  </si>
+  <si>
+    <t>66,9</t>
+  </si>
+  <si>
+    <t>48,5</t>
+  </si>
+  <si>
+    <t>56,6</t>
+  </si>
+  <si>
+    <t>76,5</t>
+  </si>
+  <si>
+    <t>59,7</t>
+  </si>
+  <si>
+    <t>40,8</t>
+  </si>
+  <si>
+    <t>46,5</t>
+  </si>
+  <si>
+    <t>36,3</t>
+  </si>
+  <si>
+    <t>29,9</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>29,3</t>
+  </si>
+  <si>
+    <t>32,3</t>
+  </si>
+  <si>
+    <t>26,4</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>24,8</t>
+  </si>
+  <si>
     <t>21,0</t>
   </si>
   <si>
-    <t>-55,3</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>-51,9</t>
-  </si>
-  <si>
     <t>District heating</t>
   </si>
   <si>
+    <t>132,3</t>
+  </si>
+  <si>
     <t>144,6</t>
   </si>
   <si>
+    <t>147,6</t>
+  </si>
+  <si>
+    <t>150,6</t>
+  </si>
+  <si>
+    <t>150,1</t>
+  </si>
+  <si>
+    <t>157,8</t>
+  </si>
+  <si>
+    <t>132,8</t>
+  </si>
+  <si>
+    <t>105,9</t>
+  </si>
+  <si>
+    <t>121,7</t>
+  </si>
+  <si>
+    <t>102,7</t>
+  </si>
+  <si>
+    <t>108,6</t>
+  </si>
+  <si>
+    <t>112,2</t>
+  </si>
+  <si>
+    <t>93,5</t>
+  </si>
+  <si>
+    <t>66,3</t>
+  </si>
+  <si>
+    <t>96,7</t>
+  </si>
+  <si>
+    <t>72,7</t>
+  </si>
+  <si>
+    <t>60,2</t>
+  </si>
+  <si>
+    <t>64,7</t>
+  </si>
+  <si>
     <t>59,6</t>
   </si>
   <si>
-    <t>-58,8</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>-55,7</t>
-  </si>
-  <si>
     <t>Oil heating</t>
   </si>
   <si>
+    <t>99,9</t>
+  </si>
+  <si>
     <t>75,7</t>
   </si>
   <si>
+    <t>75,8</t>
+  </si>
+  <si>
+    <t>70,5</t>
+  </si>
+  <si>
+    <t>54,2</t>
+  </si>
+  <si>
+    <t>55,1</t>
+  </si>
+  <si>
+    <t>59,9</t>
+  </si>
+  <si>
+    <t>50,8</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>42,8</t>
+  </si>
+  <si>
+    <t>38,7</t>
+  </si>
+  <si>
+    <t>40,7</t>
+  </si>
+  <si>
+    <t>39,5</t>
+  </si>
+  <si>
+    <t>37,4</t>
+  </si>
+  <si>
+    <t>34,7</t>
+  </si>
+  <si>
+    <t>31,5</t>
+  </si>
+  <si>
+    <t>31,7</t>
+  </si>
+  <si>
     <t>26,2</t>
   </si>
   <si>
-    <t>-65,4</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>-62,8</t>
-  </si>
-  <si>
     <t>Other heating</t>
   </si>
   <si>
+    <t>44,5</t>
+  </si>
+  <si>
     <t>37,2</t>
   </si>
   <si>
+    <t>35,9</t>
+  </si>
+  <si>
+    <t>39,9</t>
+  </si>
+  <si>
+    <t>40,9</t>
+  </si>
+  <si>
+    <t>46,1</t>
+  </si>
+  <si>
+    <t>42,1</t>
+  </si>
+  <si>
+    <t>38,3</t>
+  </si>
+  <si>
+    <t>37,7</t>
+  </si>
+  <si>
+    <t>36,1</t>
+  </si>
+  <si>
+    <t>45,6</t>
+  </si>
+  <si>
+    <t>42,9</t>
+  </si>
+  <si>
+    <t>42,2</t>
+  </si>
+  <si>
+    <t>38,6</t>
+  </si>
+  <si>
     <t>38,5</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
+    <t>45,8</t>
+  </si>
+  <si>
     <t>36,7</t>
   </si>
   <si>
+    <t>34,0</t>
+  </si>
+  <si>
+    <t>30,7</t>
+  </si>
+  <si>
+    <t>25,4</t>
+  </si>
+  <si>
+    <t>19,9</t>
+  </si>
+  <si>
+    <t>23,4</t>
+  </si>
+  <si>
+    <t>20,3</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>20,8</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>18,1</t>
+  </si>
+  <si>
+    <t>14,8</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>12,6</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
     <t>16,5</t>
   </si>
   <si>
-    <t>-55,1</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
     <t>Machinery</t>
   </si>
   <si>
+    <t>70,6</t>
+  </si>
+  <si>
     <t>68,8</t>
   </si>
   <si>
+    <t>73,4</t>
+  </si>
+  <si>
+    <t>78,7</t>
+  </si>
+  <si>
+    <t>74,4</t>
+  </si>
+  <si>
+    <t>72,4</t>
+  </si>
+  <si>
+    <t>70,4</t>
+  </si>
+  <si>
+    <t>66,8</t>
+  </si>
+  <si>
+    <t>68,0</t>
+  </si>
+  <si>
+    <t>69,1</t>
+  </si>
+  <si>
+    <t>65,9</t>
+  </si>
+  <si>
+    <t>69,7</t>
+  </si>
+  <si>
+    <t>63,4</t>
+  </si>
+  <si>
+    <t>64,9</t>
+  </si>
+  <si>
+    <t>61,2</t>
+  </si>
+  <si>
+    <t>63,2</t>
+  </si>
+  <si>
+    <t>56,1</t>
+  </si>
+  <si>
     <t>55,0</t>
   </si>
   <si>
-    <t>-20,1</t>
-  </si>
-  <si>
-    <t>-14,0</t>
-  </si>
-  <si>
     <t>Road transport</t>
   </si>
   <si>
+    <t>293,0</t>
+  </si>
+  <si>
     <t>298,1</t>
   </si>
   <si>
+    <t>299,4</t>
+  </si>
+  <si>
+    <t>309,6</t>
+  </si>
+  <si>
+    <t>294,9</t>
+  </si>
+  <si>
+    <t>277,5</t>
+  </si>
+  <si>
+    <t>288,1</t>
+  </si>
+  <si>
+    <t>281,9</t>
+  </si>
+  <si>
+    <t>277,0</t>
+  </si>
+  <si>
+    <t>278,7</t>
+  </si>
+  <si>
+    <t>251,7</t>
+  </si>
+  <si>
+    <t>246,5</t>
+  </si>
+  <si>
+    <t>269,6</t>
+  </si>
+  <si>
+    <t>253,0</t>
+  </si>
+  <si>
+    <t>253,6</t>
+  </si>
+  <si>
+    <t>242,6</t>
+  </si>
+  <si>
+    <t>223,7</t>
+  </si>
+  <si>
+    <t>214,6</t>
+  </si>
+  <si>
     <t>200,7</t>
   </si>
   <si>
-    <t>-32,7</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>-27,6</t>
-  </si>
-  <si>
     <t>Rail transport</t>
   </si>
   <si>
     <t>14,1</t>
   </si>
   <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
     <t>7,6</t>
   </si>
   <si>
-    <t>-46,5</t>
-  </si>
-  <si>
-    <t>-42,4</t>
+    <t>8,2</t>
   </si>
   <si>
     <t>Water transport</t>
   </si>
   <si>
-    <t>9,5</t>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>7,5</t>
   </si>
   <si>
     <t>6,4</t>
   </si>
   <si>
-    <t>-32,0</t>
-  </si>
-  <si>
-    <t>-26,9</t>
-  </si>
-  <si>
     <t>Agriculture</t>
   </si>
   <si>
+    <t>213,9</t>
+  </si>
+  <si>
     <t>160,4</t>
   </si>
   <si>
+    <t>159,2</t>
+  </si>
+  <si>
+    <t>156,2</t>
+  </si>
+  <si>
+    <t>158,3</t>
+  </si>
+  <si>
+    <t>154,2</t>
+  </si>
+  <si>
+    <t>153,1</t>
+  </si>
+  <si>
+    <t>147,0</t>
+  </si>
+  <si>
+    <t>143,3</t>
+  </si>
+  <si>
+    <t>141,6</t>
+  </si>
+  <si>
+    <t>139,4</t>
+  </si>
+  <si>
+    <t>140,3</t>
+  </si>
+  <si>
+    <t>137,3</t>
+  </si>
+  <si>
+    <t>136,1</t>
+  </si>
+  <si>
+    <t>138,5</t>
+  </si>
+  <si>
+    <t>129,9</t>
+  </si>
+  <si>
     <t>125,8</t>
   </si>
   <si>
-    <t>-21,6</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>-15,7</t>
-  </si>
-  <si>
     <t>Waste treatment</t>
   </si>
   <si>
+    <t>112,3</t>
+  </si>
+  <si>
     <t>73,6</t>
   </si>
   <si>
+    <t>76,2</t>
+  </si>
+  <si>
+    <t>75,0</t>
+  </si>
+  <si>
+    <t>73,7</t>
+  </si>
+  <si>
+    <t>70,0</t>
+  </si>
+  <si>
+    <t>72,5</t>
+  </si>
+  <si>
+    <t>70,3</t>
+  </si>
+  <si>
+    <t>69,8</t>
+  </si>
+  <si>
+    <t>63,7</t>
+  </si>
+  <si>
+    <t>55,9</t>
+  </si>
+  <si>
+    <t>52,8</t>
+  </si>
+  <si>
+    <t>50,7</t>
+  </si>
+  <si>
+    <t>52,9</t>
+  </si>
+  <si>
+    <t>52,5</t>
+  </si>
+  <si>
+    <t>49,3</t>
+  </si>
+  <si>
     <t>46,8</t>
   </si>
   <si>
-    <t>-36,4</t>
-  </si>
-  <si>
-    <t>-31,6</t>
-  </si>
-  <si>
     <t>F-gases</t>
   </si>
   <si>
+    <t>1,5</t>
+  </si>
+  <si>
     <t>30,1</t>
   </si>
   <si>
+    <t>34,3</t>
+  </si>
+  <si>
+    <t>34,2</t>
+  </si>
+  <si>
+    <t>35,7</t>
+  </si>
+  <si>
+    <t>34,1</t>
+  </si>
+  <si>
+    <t>33,9</t>
+  </si>
+  <si>
+    <t>33,8</t>
+  </si>
+  <si>
+    <t>33,6</t>
+  </si>
+  <si>
+    <t>33,4</t>
+  </si>
+  <si>
+    <t>31,0</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>27,7</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>22,6</t>
+  </si>
+  <si>
     <t>20,7</t>
   </si>
   <si>
-    <t>-31,4</t>
-  </si>
-  <si>
-    <t>-26,2</t>
-  </si>
-  <si>
     <t>Emission credits</t>
   </si>
   <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>total emissions, ktCO2e</t>
+  </si>
+  <si>
+    <t>1179,5</t>
   </si>
   <si>
     <t>1112,1</t>
   </si>
   <si>
+    <t>1231,4</t>
+  </si>
+  <si>
+    <t>1217,5</t>
+  </si>
+  <si>
+    <t>1121,9</t>
+  </si>
+  <si>
+    <t>1108,0</t>
+  </si>
+  <si>
+    <t>1178,0</t>
+  </si>
+  <si>
+    <t>1041,6</t>
+  </si>
+  <si>
+    <t>994,9</t>
+  </si>
+  <si>
+    <t>992,4</t>
+  </si>
+  <si>
+    <t>926,9</t>
+  </si>
+  <si>
+    <t>881,5</t>
+  </si>
+  <si>
+    <t>897,8</t>
+  </si>
+  <si>
+    <t>831,0</t>
+  </si>
+  <si>
+    <t>859,7</t>
+  </si>
+  <si>
+    <t>801,3</t>
+  </si>
+  <si>
+    <t>733,6</t>
+  </si>
+  <si>
+    <t>724,5</t>
+  </si>
+  <si>
     <t>680,9</t>
   </si>
   <si>
-    <t>-38,8</t>
-  </si>
-  <si>
-    <t>8,3</t>
+    <t>per person, tCO2e</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>5,7</t>
   </si>
   <si>
     <t>5,4</t>
-  </si>
-  <si>
-    <t>-34,2</t>
   </si>
   <si>
     <t>population</t>
@@ -684,389 +1224,1132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1990</v>
+      </c>
+      <c r="C3">
+        <v>2005</v>
+      </c>
+      <c r="D3">
+        <v>2006</v>
+      </c>
+      <c r="E3">
+        <v>2007</v>
+      </c>
+      <c r="F3">
+        <v>2008</v>
+      </c>
+      <c r="G3">
+        <v>2009</v>
+      </c>
+      <c r="H3">
+        <v>2010</v>
+      </c>
+      <c r="I3">
+        <v>2011</v>
+      </c>
+      <c r="J3">
+        <v>2012</v>
+      </c>
+      <c r="K3">
+        <v>2013</v>
+      </c>
+      <c r="L3">
+        <v>2014</v>
+      </c>
+      <c r="M3">
+        <v>2015</v>
+      </c>
+      <c r="N3">
+        <v>2016</v>
+      </c>
+      <c r="O3">
+        <v>2017</v>
+      </c>
+      <c r="P3">
+        <v>2018</v>
+      </c>
+      <c r="Q3">
+        <v>2019</v>
+      </c>
+      <c r="R3">
+        <v>2020</v>
+      </c>
+      <c r="S3">
+        <v>2021</v>
+      </c>
+      <c r="T3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R12" t="s">
+        <v>172</v>
+      </c>
+      <c r="S12" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>173</v>
+      </c>
+      <c r="R13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>204</v>
+      </c>
+      <c r="R14" t="s">
+        <v>202</v>
+      </c>
+      <c r="S14" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>217</v>
+      </c>
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>218</v>
+      </c>
+      <c r="O15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P15" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
+      <c r="R16" t="s">
+        <v>239</v>
+      </c>
+      <c r="S16" t="s">
+        <v>240</v>
+      </c>
+      <c r="T16" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" t="s">
+        <v>243</v>
+      </c>
+      <c r="N17" t="s">
+        <v>243</v>
+      </c>
+      <c r="O17" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>243</v>
+      </c>
+      <c r="R17" t="s">
+        <v>243</v>
+      </c>
+      <c r="S17" t="s">
+        <v>243</v>
+      </c>
+      <c r="T17" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" t="s">
+        <v>252</v>
+      </c>
+      <c r="J18" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M18" t="s">
+        <v>256</v>
+      </c>
+      <c r="N18" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" t="s">
+        <v>258</v>
+      </c>
+      <c r="P18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>260</v>
+      </c>
+      <c r="R18" t="s">
+        <v>261</v>
+      </c>
+      <c r="S18" t="s">
+        <v>262</v>
+      </c>
+      <c r="T18" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>266</v>
+      </c>
+      <c r="M19" t="s">
+        <v>267</v>
+      </c>
+      <c r="N19" t="s">
+        <v>268</v>
+      </c>
+      <c r="O19" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>269</v>
+      </c>
+      <c r="R19" t="s">
+        <v>270</v>
+      </c>
+      <c r="S19" t="s">
+        <v>271</v>
+      </c>
+      <c r="T19" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20">
+        <v>140244</v>
+      </c>
+      <c r="C20">
         <v>134786</v>
       </c>
-      <c r="C19">
+      <c r="D20">
+        <v>134441</v>
+      </c>
+      <c r="E20">
+        <v>133899</v>
+      </c>
+      <c r="F20">
+        <v>133647</v>
+      </c>
+      <c r="G20">
+        <v>133210</v>
+      </c>
+      <c r="H20">
+        <v>132899</v>
+      </c>
+      <c r="I20">
+        <v>132527</v>
+      </c>
+      <c r="J20">
+        <v>132355</v>
+      </c>
+      <c r="K20">
+        <v>132252</v>
+      </c>
+      <c r="L20">
+        <v>131764</v>
+      </c>
+      <c r="M20">
+        <v>131155</v>
+      </c>
+      <c r="N20">
+        <v>130506</v>
+      </c>
+      <c r="O20">
+        <v>129865</v>
+      </c>
+      <c r="P20">
+        <v>128756</v>
+      </c>
+      <c r="Q20">
+        <v>127757</v>
+      </c>
+      <c r="R20">
+        <v>126921</v>
+      </c>
+      <c r="S20">
+        <v>126107</v>
+      </c>
+      <c r="T20">
         <v>125353</v>
       </c>
     </row>
